--- a/book2/2302/file/2302-08.xlsx
+++ b/book2/2302/file/2302-08.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\rin2-dev\2302\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\rin2\book2\2302\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -487,7 +487,7 @@
                 <a:endParaRPr lang="sl-SI"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -680,8 +680,8 @@
         <c:axId val="462514784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="240"/>
-          <c:min val="-60"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -769,13 +769,14 @@
         <c:crossAx val="462514128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="60"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="461499608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="30"/>
+          <c:min val="-20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
